--- a/CSOF5100 Proyecto 1/Segunda Entrega/ArquitecturaAplicaciones.xlsx
+++ b/CSOF5100 Proyecto 1/Segunda Entrega/ArquitecturaAplicaciones.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="11715" windowHeight="4935" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="11715" windowHeight="4935" tabRatio="764" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo de Apps" sheetId="4" r:id="rId1"/>
     <sheet name="Catalogo Apps TO BE" sheetId="7" r:id="rId2"/>
     <sheet name="Funcionalidad Aplicacion AS IS" sheetId="1" r:id="rId3"/>
     <sheet name="Funcionalidad Aplicación TOBE" sheetId="3" r:id="rId4"/>
-    <sheet name="AnalisisBrechasAppsFunc" sheetId="5" r:id="rId5"/>
-    <sheet name="Definición de Proyectos" sheetId="6" r:id="rId6"/>
+    <sheet name="Matriz Integracion AS-IS" sheetId="8" r:id="rId5"/>
+    <sheet name="Matriz Integracion TO-BE" sheetId="9" r:id="rId6"/>
+    <sheet name="AnalisisBrechasAppsFunc" sheetId="5" r:id="rId7"/>
+    <sheet name="Analisis Brechas Integracion" sheetId="10" r:id="rId8"/>
+    <sheet name="Definición de Proyectos" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="248">
   <si>
     <t>Adjuntar documentos de soporte</t>
   </si>
@@ -660,9 +663,6 @@
     <t>P004</t>
   </si>
   <si>
-    <t>FALTAN PROYECTOS ASOCIADOS A LA INTEGRACIÓN (MAURICIO)</t>
-  </si>
-  <si>
     <t>Adaptación sistema POManager a los nuevos drivers del negocio</t>
   </si>
   <si>
@@ -709,23 +709,73 @@
   </si>
   <si>
     <t>Permite realizar pagos a nivel internacional</t>
+  </si>
+  <si>
+    <t>JMS, SOAP/WebService</t>
+  </si>
+  <si>
+    <t>SOAP/WebService</t>
+  </si>
+  <si>
+    <t>BI01</t>
+  </si>
+  <si>
+    <t>BI02</t>
+  </si>
+  <si>
+    <t>BI03</t>
+  </si>
+  <si>
+    <t>BI04</t>
+  </si>
+  <si>
+    <t>CODIGO BRECHA</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>Integracion sistema TRMSystem</t>
+  </si>
+  <si>
+    <t>Integracion sistema InternationalRiskCualificationSystem</t>
+  </si>
+  <si>
+    <t>Implementacion de la integracion del nuevo sistema InternationalRiskCualificationSystem para que este pueda invocar al CRM y al sistema de autenticacion SSO Authentication</t>
+  </si>
+  <si>
+    <t>Invocacion sistema TRMSystem</t>
+  </si>
+  <si>
+    <t>Modificar la implementacion de la integracion del sistema BillingChargesSystem para que pueda invocar el sistema TRMSystem</t>
+  </si>
+  <si>
+    <t>Implementacion de la integracion del TRMSystem para que pueda invocar al sistema de autenticacion SSO Authentication</t>
+  </si>
+  <si>
+    <t>Integracion sistema PaymentSystem</t>
+  </si>
+  <si>
+    <t>Implementacion de la integracion del PaymentSystem para que pueda invocar al sistema de autenticacion SSO Authentication asi como al CRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -786,7 +836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,10 +855,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -817,118 +895,127 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,21 +1024,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -992,10 +1068,21 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,12 +1090,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:D14" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:D14" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="2"/>
     <tableColumn id="4" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1016,12 +1103,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Identificador"/>
-    <tableColumn id="2" name="Nombre Proyecto" dataDxfId="5"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="4"/>
+    <tableColumn id="2" name="Nombre Proyecto" dataDxfId="1"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="0"/>
     <tableColumn id="4" name="Brechas Asociadas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1316,7 +1403,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1452,7 +1539,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1464,16 +1551,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>200</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
@@ -1487,7 +1574,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -1501,7 +1588,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -1515,7 +1602,7 @@
         <v>105</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
@@ -1529,7 +1616,7 @@
         <v>107</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
@@ -1543,7 +1630,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -1557,7 +1644,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -1571,7 +1658,7 @@
         <v>113</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45">
@@ -1585,7 +1672,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
@@ -1599,7 +1686,7 @@
         <v>117</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1613,53 +1700,53 @@
         <v>119</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="57"/>
+      <c r="B15" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2997,8 +3084,8 @@
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5282,10 +5369,538 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="141.75">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45">
+      <c r="A2" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="44.25" customHeight="1">
+      <c r="A4" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30">
+      <c r="A5" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30">
+      <c r="A9" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30">
+      <c r="A10" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="143.25" customHeight="1">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45">
+      <c r="A2" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="45">
+      <c r="A4" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45">
+      <c r="A5" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30">
+      <c r="A6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30">
+      <c r="A7" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30">
+      <c r="A8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:14" ht="45">
+      <c r="A12" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:14" ht="30">
+      <c r="A13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:14" ht="30">
+      <c r="A14" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5484,19 +6099,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="188.25">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="57"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="57"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="57"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="57"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15"/>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="19" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="20" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5561,10 +6569,10 @@
         <v>212</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>215</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>197</v>
@@ -5572,21 +6580,72 @@
     </row>
     <row r="6" spans="1:4" ht="60">
       <c r="A6" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>218</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="56" t="s">
-        <v>213</v>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90">
+      <c r="A8" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
+      <c r="A9" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60">
+      <c r="A10" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/CSOF5100 Proyecto 1/Segunda Entrega/ArquitecturaAplicaciones.xlsx
+++ b/CSOF5100 Proyecto 1/Segunda Entrega/ArquitecturaAplicaciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="11715" windowHeight="4935" tabRatio="764" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="11715" windowHeight="4935" tabRatio="764" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo de Apps" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="AnalisisBrechasAppsFunc" sheetId="5" r:id="rId7"/>
     <sheet name="Analisis Brechas Integracion" sheetId="10" r:id="rId8"/>
     <sheet name="Definición de Proyectos" sheetId="6" r:id="rId9"/>
+    <sheet name="Cstos" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="252">
   <si>
     <t>Adjuntar documentos de soporte</t>
   </si>
@@ -766,13 +767,28 @@
   </si>
   <si>
     <t>Implementacion de la integracion del PaymentSystem para que pueda invocar al sistema de autenticacion SSO Authentication asi como al CRM</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Esfuerzo (Horas/Ingeniero)</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0_);[Red]\(&quot;$&quot;\ #,##0\)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,8 +851,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,8 +884,26 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -892,13 +933,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1016,6 +1159,48 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,13 +1209,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1048,6 +1227,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1094,8 +1279,8 @@
   <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="0"/>
     <tableColumn id="4" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1107,8 +1292,8 @@
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Identificador"/>
-    <tableColumn id="2" name="Nombre Proyecto" dataDxfId="1"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="2" name="Nombre Proyecto" dataDxfId="3"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="2"/>
     <tableColumn id="4" name="Brechas Asociadas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1534,19 +1719,173 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.75" thickTop="1" thickBot="1">
+      <c r="A1" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A2" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="65">
+        <v>60</v>
+      </c>
+      <c r="C2" s="66">
+        <f>60000*B2</f>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="65">
+        <v>210</v>
+      </c>
+      <c r="C3" s="66">
+        <f t="shared" ref="C3:C10" si="0">60000*B3</f>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A4" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="65">
+        <v>60</v>
+      </c>
+      <c r="C4" s="66">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" thickBot="1">
+      <c r="A5" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="65">
+        <v>200</v>
+      </c>
+      <c r="C5" s="66">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A6" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="65">
+        <v>150</v>
+      </c>
+      <c r="C6" s="66">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A7" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="65">
+        <v>50</v>
+      </c>
+      <c r="C7" s="66">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" thickBot="1">
+      <c r="A8" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="65">
+        <v>50</v>
+      </c>
+      <c r="C8" s="66">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A9" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="65">
+        <v>50</v>
+      </c>
+      <c r="C9" s="66">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A10" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="67">
+        <v>50</v>
+      </c>
+      <c r="C10" s="66">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="69">
+        <f>SUM(B2:B10)</f>
+        <v>880</v>
+      </c>
+      <c r="C11" s="70">
+        <f>SUM(C2:C10)</f>
+        <v>52800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1">
@@ -1563,84 +1902,84 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="75">
       <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="61" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="75">
       <c r="A3" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="61" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="60">
       <c r="A4" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="61" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="61" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="61" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="61" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -1654,21 +1993,21 @@
       <c r="B8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="61" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1682,7 +2021,7 @@
       <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="61" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1696,7 +2035,7 @@
       <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="62" t="s">
         <v>119</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -1710,35 +2049,35 @@
       <c r="B12" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="61" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="60">
       <c r="A13" s="12" t="s">
         <v>225</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="61" t="s">
         <v>226</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="12" t="s">
         <v>227</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="61" t="s">
         <v>228</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -1761,8 +2100,8 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3084,8 +3423,8 @@
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5606,8 +5945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5731,7 +6070,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45">
+    <row r="5" spans="1:14" ht="30">
       <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
@@ -5899,8 +6238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6104,7 +6443,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection sqref="A1:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6496,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6522,7 +6861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="19" t="s">
         <v>203</v>
       </c>
@@ -6536,7 +6875,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="135">
+    <row r="3" spans="1:4" ht="105">
       <c r="A3" s="19" t="s">
         <v>204</v>
       </c>
@@ -6550,7 +6889,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="19" t="s">
         <v>209</v>
       </c>
@@ -6564,7 +6903,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" s="19" t="s">
         <v>212</v>
       </c>
@@ -6578,7 +6917,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="19" t="s">
         <v>215</v>
       </c>
